--- a/public/sample/espi_courses_excel_sample.xlsx
+++ b/public/sample/espi_courses_excel_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asc-dev\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFF7AEC-4D25-405C-B4CD-820F7414BE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF35D81-5988-443E-A74D-A162401377EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0F239B66-6222-49E4-8EC9-2DDFE910ED09}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Course Name</t>
   </si>
@@ -64,6 +64,39 @@
   </si>
   <si>
     <t>pdf### jpg ### doc</t>
+  </si>
+  <si>
+    <t>Specialization</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Application Fees</t>
+  </si>
+  <si>
+    <t>Course Link</t>
+  </si>
+  <si>
+    <t>Intake Year</t>
+  </si>
+  <si>
+    <t>Intake Month</t>
+  </si>
+  <si>
+    <t>spec</t>
+  </si>
+  <si>
+    <t>2 year</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>3 year</t>
+  </si>
+  <si>
+    <t>May</t>
   </si>
 </sst>
 </file>
@@ -437,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDB75DA-3D35-411E-BA0A-748FF238EF0D}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,9 +483,15 @@
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="66" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,8 +507,26 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -485,8 +542,26 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>15000</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2021</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -501,6 +576,24 @@
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>20000</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>2021</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample/espi_courses_excel_sample.xlsx
+++ b/public/sample/espi_courses_excel_sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asc-dev\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sagar\laravel\temp\espicrm\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF35D81-5988-443E-A74D-A162401377EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4AD5763-0BB2-4995-BC17-C0016FC5F69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0F239B66-6222-49E4-8EC9-2DDFE910ED09}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Course Name</t>
   </si>
@@ -97,13 +97,76 @@
   </si>
   <si>
     <t>May</t>
+  </si>
+  <si>
+    <t>D-Req-ACA-%</t>
+  </si>
+  <si>
+    <t>D-Req-ACA-GPA</t>
+  </si>
+  <si>
+    <t>D-Req-LAN-%</t>
+  </si>
+  <si>
+    <t>D-Req-LAN-GPA</t>
+  </si>
+  <si>
+    <t>G-Req-ACA-%</t>
+  </si>
+  <si>
+    <t>G-Req-ACA-GPA</t>
+  </si>
+  <si>
+    <t>G-Req-LAN-%</t>
+  </si>
+  <si>
+    <t>G-Req-LAN-GPA</t>
+  </si>
+  <si>
+    <t>PG-Req-ACA-%</t>
+  </si>
+  <si>
+    <t>PG-Req-ACA-GPA</t>
+  </si>
+  <si>
+    <t>PG-Req-LAN-%</t>
+  </si>
+  <si>
+    <t>PG-Req-LAN-GPA</t>
+  </si>
+  <si>
+    <t>10-Req-ACA-%</t>
+  </si>
+  <si>
+    <t>10-Req-ACA-GPA</t>
+  </si>
+  <si>
+    <t>10-Req-LAN-%</t>
+  </si>
+  <si>
+    <t>10-Req-LAN-GPA</t>
+  </si>
+  <si>
+    <t>12-Req-ACA-%</t>
+  </si>
+  <si>
+    <t>12-Req-ACA-GPA</t>
+  </si>
+  <si>
+    <t>12-Req-LAN-%</t>
+  </si>
+  <si>
+    <t>12-Req-LAN-GPA</t>
+  </si>
+  <si>
+    <t>3.5 GPA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +193,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -151,11 +222,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDB75DA-3D35-411E-BA0A-748FF238EF0D}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,9 +562,25 @@
     <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,8 +614,68 @@
       <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="L1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -560,8 +709,68 @@
       <c r="K2" t="s">
         <v>21</v>
       </c>
+      <c r="L2" s="5">
+        <v>80</v>
+      </c>
+      <c r="M2">
+        <v>3.5</v>
+      </c>
+      <c r="N2" s="5">
+        <v>90</v>
+      </c>
+      <c r="O2" s="5">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <v>70</v>
+      </c>
+      <c r="Q2">
+        <v>4.5</v>
+      </c>
+      <c r="R2" s="5">
+        <v>80</v>
+      </c>
+      <c r="S2">
+        <v>3.5</v>
+      </c>
+      <c r="T2" s="5">
+        <v>90</v>
+      </c>
+      <c r="U2">
+        <v>4.5</v>
+      </c>
+      <c r="V2">
+        <v>90</v>
+      </c>
+      <c r="W2">
+        <v>4.5</v>
+      </c>
+      <c r="X2" s="5">
+        <v>80</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>90</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AB2">
+        <v>3.5</v>
+      </c>
+      <c r="AC2">
+        <v>4.5</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>80</v>
+      </c>
+      <c r="AE2">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -594,6 +803,66 @@
       </c>
       <c r="K3" t="s">
         <v>23</v>
+      </c>
+      <c r="L3" s="5">
+        <v>80</v>
+      </c>
+      <c r="M3">
+        <v>3.5</v>
+      </c>
+      <c r="N3" s="5">
+        <v>90</v>
+      </c>
+      <c r="O3" s="5">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>70</v>
+      </c>
+      <c r="Q3">
+        <v>4.5</v>
+      </c>
+      <c r="R3" s="5">
+        <v>80</v>
+      </c>
+      <c r="S3">
+        <v>3.5</v>
+      </c>
+      <c r="T3" s="5">
+        <v>90</v>
+      </c>
+      <c r="U3">
+        <v>4.5</v>
+      </c>
+      <c r="V3">
+        <v>90</v>
+      </c>
+      <c r="W3">
+        <v>4.5</v>
+      </c>
+      <c r="X3" s="5">
+        <v>80</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>90</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AB3">
+        <v>3.5</v>
+      </c>
+      <c r="AC3">
+        <v>4.5</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>80</v>
+      </c>
+      <c r="AE3">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample/espi_courses_excel_sample.xlsx
+++ b/public/sample/espi_courses_excel_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sagar\laravel\temp\espicrm\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4AD5763-0BB2-4995-BC17-C0016FC5F69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AEC9DAE-FD26-48BD-9840-53D9ABFB0893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0F239B66-6222-49E4-8EC9-2DDFE910ED09}"/>
   </bookViews>
@@ -48,18 +48,6 @@
     <t>under-graduate</t>
   </si>
   <si>
-    <t>B.COM</t>
-  </si>
-  <si>
-    <t>M.COM</t>
-  </si>
-  <si>
-    <t>10th Marksheet### 12th Marksheet### bcom Marksheet</t>
-  </si>
-  <si>
-    <t>10th Marksheet### 12th Marksheet</t>
-  </si>
-  <si>
     <t>pdf### jpg</t>
   </si>
   <si>
@@ -160,6 +148,18 @@
   </si>
   <si>
     <t>3.5 GPA</t>
+  </si>
+  <si>
+    <t>B.C.A</t>
+  </si>
+  <si>
+    <t>M.C.A</t>
+  </si>
+  <si>
+    <t>10th Documents### 12th Documents</t>
+  </si>
+  <si>
+    <t>10th Documents### 12th Documents### Bachelor Documents</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
   <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,87 +597,87 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="L1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -686,16 +686,16 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>15000</v>
@@ -707,7 +707,7 @@
         <v>2021</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L2" s="5">
         <v>80</v>
@@ -749,7 +749,7 @@
         <v>80</v>
       </c>
       <c r="Y2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Z2" s="5">
         <v>90</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -781,16 +781,16 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>20000</v>
@@ -802,7 +802,7 @@
         <v>2021</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L3" s="5">
         <v>80</v>
@@ -844,7 +844,7 @@
         <v>80</v>
       </c>
       <c r="Y3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Z3" s="5">
         <v>90</v>
